--- a/03.crawler/01.RockAuto/file/10.kit_info/crawler_1.xlsx
+++ b/03.crawler/01.RockAuto/file/10.kit_info/crawler_1.xlsx
@@ -1131,7 +1131,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"0": "$16.82"}</t>
+          <t>{"0": "$16.72"}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1691,7 +1691,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"0": "$6.38"}</t>
+          <t>{"0": "$6.35"}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3131,7 +3131,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{"0": "$17.06"}</t>
+          <t>{"0": "$16.96"}</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">

--- a/03.crawler/01.RockAuto/file/10.kit_info/crawler_1.xlsx
+++ b/03.crawler/01.RockAuto/file/10.kit_info/crawler_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,92 +436,87 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Kit_JOIN_MPNTCPC</t>
+          <t>[Kit] JOIN_MPNTCPC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Type</t>
+          <t>[Kit] Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Manufacturer</t>
+          <t>[Kit] Manufacturer</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Part Number</t>
+          <t>[Kit] Part Number</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Vehicle</t>
+          <t>[Kit] OEM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Kit_OEM</t>
+          <t>[Kit] Picture</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Picture</t>
+          <t>[Kit] Url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Url</t>
+          <t>[Kit] Json_Src</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Json_Src</t>
+          <t>[Kit] Info</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Info</t>
+          <t>[Kit] Json_Note 1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Choose</t>
+          <t>[Kit] Json_Note 2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Json_Price</t>
+          <t>[Kit] Choose</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Json_Note 1</t>
+          <t>[Kit] Json_Price</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Json_Note 2</t>
+          <t>[Kit] Json_Specification</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Json_Specification</t>
+          <t>[Kit] Json_Kit</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Json_Kit</t>
+          <t>[Kit] Type Code</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Kit_Type Code</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Kit_Part Code</t>
+          <t>[Kit] Part Code</t>
         </is>
       </c>
     </row>
@@ -546,60 +541,59 @@
           <t>1025</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>135060P010;135060P011;1350631020;1350631030;1350631031</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,1025,Timing Chain,5724</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,1025,Timing Chain,5724</t>
+          <t>{"0": "https://www.rockauto.com/info/583/1025-1-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/1025-1-ANG.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921164&amp;cc=0&amp;pt=5724</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921164&amp;cc=0&amp;pt=5724</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>{"0": "$58.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain"}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$59.79"}</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain"}</t>
+          <t>{"0": {"0": "Chain Length-1", "1": "31.750\""}, "1": {"0": "Chain Length-2", "1": "806.45 MM"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "0.375\""}, "4": {"0": "Chain Pitch-2", "1": "9.52 mm"}, "5": {"0": "Chain Type", "1": "Roller"}, "6": {"0": "Chain Width-1", "1": "0.540\""}, "7": {"0": "Chain Width-2", "1": "13.71 mm"}, "8": {"0": "Link Quantity", "1": "170"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "3"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Chain Length-1", "1": "31.750\""}, "1": {"0": "Chain Length-2", "1": "806.45 MM"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "0.375\""}, "4": {"0": "Chain Pitch-2", "1": "9.52 mm"}, "5": {"0": "Chain Type", "1": "Roller"}, "6": {"0": "Chain Width-1", "1": "0.540\""}, "7": {"0": "Chain Width-2", "1": "13.71 mm"}, "8": {"0": "Link Quantity", "1": "170"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "3"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
-        <is>
-          <t>5724</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
         <is>
           <t>8921164</t>
         </is>
@@ -626,60 +620,59 @@
           <t>1026</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>135070P010;1350731020</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,1026,Timing Chain,5724</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,1026,Timing Chain,5724</t>
+          <t>{"0": "https://www.rockauto.com/info/583/1026-1-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/1026-1-ANG.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921168&amp;cc=0&amp;pt=5724</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921168&amp;cc=0&amp;pt=5724</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>{"0": "$12.10"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain"}</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$12.03"}</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain"}</t>
+          <t>{"0": {"0": "Chain Length-1", "1": "8.500\""}, "1": {"0": "Chain Length-2", "1": "215.90 mm"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "0.375\""}, "4": {"0": "Chain Pitch-2", "1": "9.52 mm"}, "5": {"0": "Chain Type", "1": "Roller"}, "6": {"0": "Chain Width-1", "1": "0.540\""}, "7": {"0": "Chain Width-2", "1": "13.71 mm"}, "8": {"0": "Link Quantity", "1": "46"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "2"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Chain Length-1", "1": "8.500\""}, "1": {"0": "Chain Length-2", "1": "215.90 mm"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "0.375\""}, "4": {"0": "Chain Pitch-2", "1": "9.52 mm"}, "5": {"0": "Chain Type", "1": "Roller"}, "6": {"0": "Chain Width-1", "1": "0.540\""}, "7": {"0": "Chain Width-2", "1": "13.71 mm"}, "8": {"0": "Link Quantity", "1": "46"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "2"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
-        <is>
-          <t>5724</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
         <is>
           <t>8921168</t>
         </is>
@@ -706,60 +699,59 @@
           <t>470</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1350631010;13506AD010</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,470,Timing Chain,5724</t>
+          <t>{"0": "https://www.rockauto.com/info/583/470-1-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/470-1-ANG.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110008&amp;cc=0&amp;pt=5724</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>{"0": "$39.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain"}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$40.79"}</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain"}</t>
+          <t>{"0": {"0": "Chain Length-1", "1": "32.250\""}, "1": {"0": "Chain Length-2", "1": "819.15 mm"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "9.52 mm"}, "4": {"0": "Chain Pitch-2", "1": "0.375\""}, "5": {"0": "Chain Type", "1": "Roller"}, "6": {"0": "Chain Width-1", "1": "0.540\""}, "7": {"0": "Chain Width-2", "1": "13.71 mm"}, "8": {"0": "Link Quantity", "1": "174"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "3"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Chain Length-1", "1": "32.250\""}, "1": {"0": "Chain Length-2", "1": "819.15 mm"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "9.52 mm"}, "4": {"0": "Chain Pitch-2", "1": "0.375\""}, "5": {"0": "Chain Type", "1": "Roller"}, "6": {"0": "Chain Width-1", "1": "0.540\""}, "7": {"0": "Chain Width-2", "1": "13.71 mm"}, "8": {"0": "Link Quantity", "1": "174"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "3"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
-        <is>
-          <t>5724</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
         <is>
           <t>10110008</t>
         </is>
@@ -786,60 +778,59 @@
           <t>471</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1350731010;13507AD010</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,471,Timing Chain,5724</t>
+          <t>{"0": "https://www.rockauto.com/info/583/471-1-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/471-1-ANG.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110012&amp;cc=0&amp;pt=5724</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>{"0": "$13.33"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain"}</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$13.57"}</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain"}</t>
+          <t>{"0": {"0": "Chain Length-1", "1": "7.750\""}, "1": {"0": "Chain Length-2", "1": "196.85 mm"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "9.52 mm"}, "4": {"0": "Chain Pitch-2", "1": "0.375\""}, "5": {"0": "Chain Type", "1": "Roller"}, "6": {"0": "Chain Width-1", "1": "0.545\""}, "7": {"0": "Chain Width-2", "1": "13.84 mm"}, "8": {"0": "Link Quantity", "1": "42"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "2"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Chain Length-1", "1": "7.750\""}, "1": {"0": "Chain Length-2", "1": "196.85 mm"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "9.52 mm"}, "4": {"0": "Chain Pitch-2", "1": "0.375\""}, "5": {"0": "Chain Type", "1": "Roller"}, "6": {"0": "Chain Width-1", "1": "0.545\""}, "7": {"0": "Chain Width-2", "1": "13.84 mm"}, "8": {"0": "Link Quantity", "1": "42"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "2"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
-        <is>
-          <t>5724</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
         <is>
           <t>10110012</t>
         </is>
@@ -866,60 +857,59 @@
           <t>715F</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>3L8Z6268AA;L30512201</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,715F,Timing Chain,5724</t>
+          <t>{"0": "https://www.rockauto.com/info/583/715F-1-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/715F-1-ANG.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8306448&amp;cc=0&amp;pt=5724</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>{"0": "$49.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain (Only 1 Remaining)"}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$50.79"}</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain"}</t>
+          <t>{"0": {"0": "Chain Length-1", "1": "21.750\""}, "1": {"0": "Chain Length-2", "1": "552.45 MM"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "6.35 mm"}, "4": {"0": "Chain Pitch-2", "1": "0.250\""}, "5": {"0": "Chain Type", "1": "Silent Chain Flexible"}, "6": {"0": "Chain Width-1", "1": "0.430\""}, "7": {"0": "Chain Width-2", "1": "10.92 MM"}, "8": {"0": "Link Quantity", "1": "174"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Marks", "1": "No"}}</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Chain Length-1", "1": "21.750\""}, "1": {"0": "Chain Length-2", "1": "552.45 MM"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "6.35 mm"}, "4": {"0": "Chain Pitch-2", "1": "0.250\""}, "5": {"0": "Chain Type", "1": "Silent Chain Flexible"}, "6": {"0": "Chain Width-1", "1": "0.430\""}, "7": {"0": "Chain Width-2", "1": "10.92 MM"}, "8": {"0": "Link Quantity", "1": "174"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Marks", "1": "No"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
-        <is>
-          <t>5724</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>8306448</t>
         </is>
@@ -946,60 +936,59 @@
           <t>717F</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>3M4Z6A895AA;L32114151</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,717F,Oil Pump Chain,5568</t>
+          <t>{"0": "https://www.rockauto.com/info/583/717F-1-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/717F-1-ANG.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8527968&amp;cc=0&amp;pt=5568</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>{"0": "$17.65"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Oil Pump Chain"}</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$18.00"}</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{"0": "Category: Oil Pump Chain"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "No"}, "1": {"0": "Chain Material", "1": "Hardened Steel"}, "2": {"0": "Chain Pitch-1", "1": "0.250\""}, "3": {"0": "Chain Pitch-2", "1": "6.35 mm"}, "4": {"0": "Chain Row Quantity", "1": "1"}, "5": {"0": "Chain Type", "1": "Silent Chain Flexible"}, "6": {"0": "Chain Width-1", "1": "0.311\""}, "7": {"0": "Chain Width-2", "1": "7.90 MM"}, "8": {"0": "Grade Type", "1": "Regular"}, "9": {"0": "Link Quantity", "1": "66"}, "10": {"0": "Universal Or Specific Fit", "1": "Specific"}}</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "No"}, "1": {"0": "Chain Material", "1": "Hardened Steel"}, "2": {"0": "Chain Pitch-1", "1": "0.250\""}, "3": {"0": "Chain Pitch-2", "1": "6.35 mm"}, "4": {"0": "Chain Row Quantity", "1": "1"}, "5": {"0": "Chain Type", "1": "Silent Chain Flexible"}, "6": {"0": "Chain Width-1", "1": "0.311\""}, "7": {"0": "Chain Width-2", "1": "7.90 MM"}, "8": {"0": "Grade Type", "1": "Regular"}, "9": {"0": "Link Quantity", "1": "66"}, "10": {"0": "Universal Or Specific Fit", "1": "Specific"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5568</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
-        <is>
-          <t>5568</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
         <is>
           <t>8527968</t>
         </is>
@@ -1026,60 +1015,59 @@
           <t>722F</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>130287S000;13028ZJ00A</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,722F,Timing Chain,5724</t>
+          <t>{"0": "https://www.rockauto.com/info/583/722F-1-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/722F-1-ANG.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659040&amp;cc=0&amp;pt=5724</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain"}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>{"0": "$52.79"}</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain"}</t>
+          <t>{"0": {"0": "Chain Length-1", "1": "20.500\""}, "1": {"0": "Chain Length-2", "1": "520.70 mm"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "6.35 mm"}, "4": {"0": "Chain Pitch-2", "1": "0.250\""}, "5": {"0": "Chain Type", "1": "Silent"}, "6": {"0": "Chain Width-1", "1": "0.480\""}, "7": {"0": "Chain Width-2", "1": "12.19 MM"}, "8": {"0": "Link Quantity", "1": "168"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "2"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Chain Length-1", "1": "20.500\""}, "1": {"0": "Chain Length-2", "1": "520.70 mm"}, "2": {"0": "Chain Material", "1": "Hardened Steel"}, "3": {"0": "Chain Pitch-1", "1": "6.35 mm"}, "4": {"0": "Chain Pitch-2", "1": "0.250\""}, "5": {"0": "Chain Type", "1": "Silent"}, "6": {"0": "Chain Width-1", "1": "0.480\""}, "7": {"0": "Chain Width-2", "1": "12.19 MM"}, "8": {"0": "Link Quantity", "1": "168"}, "9": {"0": "Roller Quantity", "1": "1"}, "10": {"0": "Row Quantity", "1": "1"}, "11": {"0": "Timing Mark Quantity", "1": "2"}, "12": {"0": "Timing Marks", "1": "Yes"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
-        <is>
-          <t>5724</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
         <is>
           <t>9659040</t>
         </is>
@@ -1106,60 +1094,59 @@
           <t>BG5053</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>130857S011;130857S012</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BG5053,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BG5053-1-SID.jpg", "1": "https://www.rockauto.com/info/583/BG5053-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BG5053-1-SID.jpg", "1": "https://www.rockauto.com/info/583/BG5053-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659056&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>{"0": "$16.72"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper (Only 1 Remaining)"}</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$16.71"}</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Length-1", "1": "12.250\""}, "1": {"0": "Length-2", "1": "311.15 mm"}, "2": {"0": "Mounting Bracket Included", "1": "Yes"}}</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Length-1", "1": "12.250\""}, "1": {"0": "Length-2", "1": "311.15 mm"}, "2": {"0": "Mounting Bracket Included", "1": "Yes"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
         <is>
           <t>9659056</t>
         </is>
@@ -1186,60 +1173,59 @@
           <t>BG5054</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>130857S001;130857S002</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BG5054,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BG5054-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5054-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BG5054-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5054-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659060&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>{"0": "$15.01"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$15.28"}</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Length-1", "1": "12.250\""}, "1": {"0": "Length-2", "1": "311.15 mm"}, "2": {"0": "Mounting Bracket Included", "1": "Yes"}}</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Length-1", "1": "12.250\""}, "1": {"0": "Length-2", "1": "311.15 mm"}, "2": {"0": "Mounting Bracket Included", "1": "Yes"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
         <is>
           <t>9659060</t>
         </is>
@@ -1266,60 +1252,59 @@
           <t>BG5062</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>135620P010;1356231020</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BG5062,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BG5062,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BG5062-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BG5062-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BG5062-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BG5062-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9722104&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9722104&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>{"0": "$7.15"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$7.30"}</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Length-1", "1": "4.290\""}, "1": {"0": "Length-2", "1": "108.96 MM"}, "2": {"0": "Material", "1": "Nylon"}}</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Length-1", "1": "4.290\""}, "1": {"0": "Length-2", "1": "108.96 MM"}, "2": {"0": "Material", "1": "Nylon"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
         <is>
           <t>9722104</t>
         </is>
@@ -1346,60 +1331,59 @@
           <t>BG5063</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>135610P010;1356131020;1356131021</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BG5063,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BG5063,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BG5063-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BG5063-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BG5063-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BG5063-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9722108&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9722108&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>{"0": "$24.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$24.89"}</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Length-1", "1": "10.870\""}, "1": {"0": "Length-2", "1": "276.09 mm"}}</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Length-1", "1": "10.870\""}, "1": {"0": "Length-2", "1": "276.09 mm"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
         <is>
           <t>9722108</t>
         </is>
@@ -1426,60 +1410,59 @@
           <t>BG5515</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1F2012610;1L5Z6K297AA;3L8Z6K297AA;6M8Z6K297BA;L30112614;L30512614;L3G312614</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BG5515,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg"}</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BG5515-1-SID.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8307424&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>{"0": "$16.26"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$16.59"}</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Length-1", "1": "1.370\""}, "1": {"0": "Length-2", "1": "34.79 mm"}, "2": {"0": "Material", "1": "Nylon"}, "3": {"0": "Mounting Bracket Included", "1": "Yes"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Length-1", "1": "1.370\""}, "1": {"0": "Length-2", "1": "34.79 mm"}, "2": {"0": "Material", "1": "Nylon"}, "3": {"0": "Mounting Bracket Included", "1": "Yes"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
         <is>
           <t>8307424</t>
         </is>
@@ -1506,60 +1489,59 @@
           <t>BG5622</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1356231010;13562AD010</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BG5622,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5622-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BG5622-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5622-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110016&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>{"0": "$8.45"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$8.60"}</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Color", "1": "Black"}, "1": {"0": "Distance Between Mounting Holes", "1": "19.05 mm"}, "2": {"0": "Length-1", "1": "3.500\""}, "3": {"0": "Length-2", "1": "88.90 MM"}, "4": {"0": "Material", "1": "Nylon"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Color", "1": "Black"}, "1": {"0": "Distance Between Mounting Holes", "1": "19.05 mm"}, "2": {"0": "Length-1", "1": "3.500\""}, "3": {"0": "Length-2", "1": "88.90 MM"}, "4": {"0": "Material", "1": "Nylon"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
         <is>
           <t>10110016</t>
         </is>
@@ -1586,60 +1568,59 @@
           <t>BG5623</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1356131010;13561AD010</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BG5623,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5623-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BG5623-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BG5623-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110020&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>{"0": "$15.77"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$16.04"}</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Color", "1": "Silver"}, "1": {"0": "Distance Between Mounting Holes", "1": "222.25 MM"}, "2": {"0": "Length-1", "1": "10.000\""}, "3": {"0": "Length-2", "1": "254.00 MM"}, "4": {"0": "Mounting Bracket Included", "1": "Yes"}, "5": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Color", "1": "Silver"}, "1": {"0": "Distance Between Mounting Holes", "1": "222.25 MM"}, "2": {"0": "Length-1", "1": "10.000\""}, "3": {"0": "Length-2", "1": "254.00 MM"}, "4": {"0": "Mounting Bracket Included", "1": "Yes"}, "5": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
         <is>
           <t>10110020</t>
         </is>
@@ -1666,60 +1647,59 @@
           <t>BG7019</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>3M4Z6M256AA;L30514614;L31J14614;L32114614</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BG7019,Oil Pump Chain Guide,11859</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BG7019-1-TOP.jpg"}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BG7019-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BG7019-1-TOP.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921276&amp;cc=0&amp;pt=11859</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>{"0": "$6.35"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Oil Pump Chain Guide"}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$6.30"}</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{"0": "Category: Oil Pump Chain Guide"}</t>
+          <t>{"0": {"0": "Material", "1": "Nylon"}, "1": {"0": "Mounting Hole Quantity", "1": "2"}}</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Material", "1": "Nylon"}, "1": {"0": "Mounting Hole Quantity", "1": "2"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>11859</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
-        <is>
-          <t>11859</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
         <is>
           <t>8921276</t>
         </is>
@@ -1746,60 +1726,59 @@
           <t>BT5066</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>130707S011;13070ZE00B</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5066,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5066-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5066-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5066-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5066-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659088&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>{"0": "$32.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner (Only 1 Remaining)"}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$33.79"}</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "1.992\""}, "2": {"0": "Housing Length-2", "1": "50.60 mm"}, "3": {"0": "Housing Width-1", "1": "1.750\""}, "4": {"0": "Housing Width-2", "1": "44.45 MM"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "1.992\""}, "2": {"0": "Housing Length-2", "1": "50.60 mm"}, "3": {"0": "Housing Width-1", "1": "1.750\""}, "4": {"0": "Housing Width-2", "1": "44.45 MM"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
         <is>
           <t>9659088</t>
         </is>
@@ -1826,60 +1805,59 @@
           <t>BT5068</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>130707S001;13070ZE00A</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5068,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5068-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5068-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5068-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5068-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659092&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>{"0": "$32.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$33.79"}</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "1.700\""}, "2": {"0": "Housing Length-2", "1": "43.18 MM"}, "3": {"0": "Housing Width-1", "1": "1.897\""}, "4": {"0": "Housing Width-2", "1": "48.18 MM"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "1.700\""}, "2": {"0": "Housing Length-2", "1": "43.18 MM"}, "3": {"0": "Housing Width-1", "1": "1.897\""}, "4": {"0": "Housing Width-2", "1": "48.18 MM"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
         <is>
           <t>9659092</t>
         </is>
@@ -1906,60 +1884,59 @@
           <t>BT5069</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>130917S010;130917S011;130917S012</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5069,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5069-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5069-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5069-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5069-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659096&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>{"0": "Out of Stock"}</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Bracket Included", "1": "Yes"}, "1": {"0": "Length-1", "1": "11.125\""}, "2": {"0": "Length-2", "1": "282.57 mm"}, "3": {"0": "Mounting Hole Quantity", "1": "1"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Bracket Included", "1": "Yes"}, "1": {"0": "Length-1", "1": "11.125\""}, "2": {"0": "Length-2", "1": "282.57 mm"}, "3": {"0": "Mounting Hole Quantity", "1": "1"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
         <is>
           <t>9659096</t>
         </is>
@@ -1986,60 +1963,59 @@
           <t>BT5070</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>130917S000</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5070,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5070-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5070-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5070-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5070-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659100&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
         <is>
           <t>{"0": "Out of Stock"}</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Bracket Included", "1": "Yes"}, "1": {"0": "Length-1", "1": "10.625\""}, "2": {"0": "Length-2", "1": "269.87 mm"}, "3": {"0": "Mounting Hole Quantity", "1": "1"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Bracket Included", "1": "Yes"}, "1": {"0": "Length-1", "1": "10.625\""}, "2": {"0": "Length-2", "1": "269.87 mm"}, "3": {"0": "Mounting Hole Quantity", "1": "1"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
         <is>
           <t>9659100</t>
         </is>
@@ -2066,60 +2042,59 @@
           <t>BT5077</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>135600P010;1356031020</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5077,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5077,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5077-1-RIT.jpg", "1": "https://www.rockauto.com/info/583/BT5077-2-LEF.jpg"}</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5077-1-RIT.jpg", "1": "https://www.rockauto.com/info/583/BT5077-2-LEF.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659104&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659104&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>{"0": "$32.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$33.79"}</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.890\""}, "2": {"0": "Housing Length-2", "1": "73.41 MM"}, "3": {"0": "Housing Width-1", "1": "0.897\""}, "4": {"0": "Housing Width-2", "1": "22.78 mm"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.890\""}, "2": {"0": "Housing Length-2", "1": "73.41 MM"}, "3": {"0": "Housing Width-1", "1": "0.897\""}, "4": {"0": "Housing Width-2", "1": "22.78 mm"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
         <is>
           <t>9659104</t>
         </is>
@@ -2146,60 +2121,59 @@
           <t>BT5078</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>135500P010;1355031020</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5078,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5078,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5078-1-RIT.jpg", "1": "https://www.rockauto.com/info/583/BT5078-2-LEF.jpg"}</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5078-1-RIT.jpg", "1": "https://www.rockauto.com/info/583/BT5078-2-LEF.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659108&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659108&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>{"0": "$32.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$33.79"}</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.880\""}, "2": {"0": "Housing Length-2", "1": "73.15 MM"}, "3": {"0": "Housing Width-1", "1": "0.898\""}, "4": {"0": "Housing Width-2", "1": "22.81 MM"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.880\""}, "2": {"0": "Housing Length-2", "1": "73.15 MM"}, "3": {"0": "Housing Width-1", "1": "0.898\""}, "4": {"0": "Housing Width-2", "1": "22.81 MM"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
         <is>
           <t>9659108</t>
         </is>
@@ -2226,60 +2200,59 @@
           <t>BT5079</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>135400P010;1354031020;1354031021</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5079,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5079,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5079-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5079-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5079-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/BT5079-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921288&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921288&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>{"0": "$30.79"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$30.89"}</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.135\""}, "2": {"0": "Housing Length-2", "1": "54.23 mm"}, "3": {"0": "Housing Material", "1": "Cast Iron"}, "4": {"0": "Housing Width-1", "1": "1.675\""}, "5": {"0": "Housing Width-2", "1": "42.55 MM"}, "6": {"0": "Mounting Bracket Included", "1": "No"}, "7": {"0": "Row Quantity", "1": "1"}, "8": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.135\""}, "2": {"0": "Housing Length-2", "1": "54.23 mm"}, "3": {"0": "Housing Material", "1": "Cast Iron"}, "4": {"0": "Housing Width-1", "1": "1.675\""}, "5": {"0": "Housing Width-2", "1": "42.55 MM"}, "6": {"0": "Mounting Bracket Included", "1": "No"}, "7": {"0": "Row Quantity", "1": "1"}, "8": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
         <is>
           <t>8921288</t>
         </is>
@@ -2306,60 +2279,59 @@
           <t>BT5514</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1F2012700;1S7Z6K254AA;244103C100;244103C300;CJ5E6K254AC;CJ5Z6K254B;LF0112500A;LF0212500</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5514,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "1": "https://www.rockauto.com/info/583/BT5514-2-TOP.jpg"}</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5514-1-ANG.jpg", "1": "https://www.rockauto.com/info/583/BT5514-2-TOP.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8308132&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>{"0": "$29.99"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$30.79"}</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.962\""}, "2": {"0": "Housing Length-2", "1": "75.23 mm"}, "3": {"0": "Housing Width-1", "1": "0.803\""}, "4": {"0": "Housing Width-2", "1": "20.40 mm"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.962\""}, "2": {"0": "Housing Length-2", "1": "75.23 mm"}, "3": {"0": "Housing Width-1", "1": "0.803\""}, "4": {"0": "Housing Width-2", "1": "20.40 mm"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic Tensioner"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
         <is>
           <t>8308132</t>
         </is>
@@ -2386,60 +2358,59 @@
           <t>BT5618</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1354031011;13540AD011</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5618,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5618-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5618-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5618-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110028&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>{"0": "$32.79"}</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.400\""}, "2": {"0": "Housing Length-2", "1": "60.96 MM"}, "3": {"0": "Housing Material", "1": "Cast Iron"}, "4": {"0": "Housing Width-1", "1": "1.750\""}, "5": {"0": "Housing Width-2", "1": "44.45 MM"}, "6": {"0": "Mounting Bracket Included", "1": "Yes"}, "7": {"0": "Tensioner Type", "1": "Hydraulic"}}</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.400\""}, "2": {"0": "Housing Length-2", "1": "60.96 MM"}, "3": {"0": "Housing Material", "1": "Cast Iron"}, "4": {"0": "Housing Width-1", "1": "1.750\""}, "5": {"0": "Housing Width-2", "1": "44.45 MM"}, "6": {"0": "Mounting Bracket Included", "1": "Yes"}, "7": {"0": "Tensioner Type", "1": "Hydraulic"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
         <is>
           <t>10110028</t>
         </is>
@@ -2466,60 +2437,59 @@
           <t>BT5619</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1355031010;13550AD010</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5619,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5619-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5619-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5619-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110032&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>{"0": "$28.79"}</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.250\""}, "2": {"0": "Housing Length-2", "1": "57.15 MM"}, "3": {"0": "Housing Width-1", "1": "1.375\""}, "4": {"0": "Housing Width-2", "1": "34.92 mm"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic"}}</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.250\""}, "2": {"0": "Housing Length-2", "1": "57.15 MM"}, "3": {"0": "Housing Width-1", "1": "1.375\""}, "4": {"0": "Housing Width-2", "1": "34.92 mm"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
         <is>
           <t>10110032</t>
         </is>
@@ -2546,60 +2516,59 @@
           <t>BT5620</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1356031010;13560AD010</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5620,Timing Chain Tensioner,5736</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5620-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5620-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5620-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110036&amp;cc=0&amp;pt=5736</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>{"0": "$28.79"}</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.250\""}, "2": {"0": "Housing Length-2", "1": "57.15 MM"}, "3": {"0": "Housing Width-1", "1": "1.375\""}, "4": {"0": "Housing Width-2", "1": "34.92 mm"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic"}}</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Housing Length-1", "1": "2.250\""}, "2": {"0": "Housing Length-2", "1": "57.15 MM"}, "3": {"0": "Housing Width-1", "1": "1.375\""}, "4": {"0": "Housing Width-2", "1": "34.92 mm"}, "5": {"0": "Mounting Bracket Included", "1": "Yes"}, "6": {"0": "Row Quantity", "1": "1"}, "7": {"0": "Tensioner Type", "1": "Hydraulic"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
-        <is>
-          <t>5736</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
         <is>
           <t>10110036</t>
         </is>
@@ -2626,60 +2595,59 @@
           <t>BT5621</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1355931010;13559AD010</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT5621,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5621-2-BOT.jpg"}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT5621-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT5621-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10110040&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>{"0": "$19.64"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$19.99"}</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Bracket Included", "1": "Yes"}, "1": {"0": "Length-1", "1": "10.750\""}, "2": {"0": "Length-2", "1": "273.05 MM"}, "3": {"0": "Mounting Hole Quantity", "1": "1"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Bracket Included", "1": "Yes"}, "1": {"0": "Length-1", "1": "10.750\""}, "2": {"0": "Length-2", "1": "273.05 MM"}, "3": {"0": "Mounting Hole Quantity", "1": "1"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
         <is>
           <t>10110040</t>
         </is>
@@ -2706,60 +2674,59 @@
           <t>BT7015</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>3L8Z6K255AA;L30512671</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT7015,Timing Chain Guide / Damper,5728</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BT7015-1-TOP.jpg"}</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT7015-2-SID.jpg", "1": "https://www.rockauto.com/info/583/BT7015-1-TOP.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8308292&amp;cc=0&amp;pt=5728</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>{"0": "$20.79"}</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Chain Guide / Damper"}</t>
+          <t>{"0": {"0": "Bracket Included", "1": "Yes"}, "1": {"0": "Length-1", "1": "10.875\""}, "2": {"0": "Length-2", "1": "275.22 mm"}, "3": {"0": "Mounting Hole Quantity", "1": "1"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Bracket Included", "1": "Yes"}, "1": {"0": "Length-1", "1": "10.875\""}, "2": {"0": "Length-2", "1": "275.22 mm"}, "3": {"0": "Mounting Hole Quantity", "1": "1"}, "4": {"0": "Timing Chain Row Quantity", "1": "1"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5728</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
-        <is>
-          <t>5728</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
         <is>
           <t>8308292</t>
         </is>
@@ -2786,60 +2753,59 @@
           <t>BT7016</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>6M8Z6K254BA;8E5Z6K254A;8E5Z6K254B;L32114500A</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,BT7016,Oil Pump Chain Tensioner,11860</t>
+          <t>{"0": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT7016-2-SID.jpg"}</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/BT7016-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/BT7016-2-SID.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8308296&amp;cc=0&amp;pt=11860</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>{"0": "$8.89"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Oil Pump Chain Tensioner"}</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$9.04"}</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{"0": "Category: Oil Pump Chain Tensioner"}</t>
+          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Chain Width-1", "1": "13.25 MM"}, "2": {"0": "Chain Width-2", "1": "0.520\""}, "3": {"0": "Length-1", "1": "3.500\""}, "4": {"0": "Length-2", "1": "88.91 MM"}, "5": {"0": "Material", "1": "Nylon"}, "6": {"0": "Mounting Hole Diameter-1", "1": "0.500\""}, "7": {"0": "Mounting Hole Diameter-2", "1": "12.70 mm"}, "8": {"0": "Mounting Hole Quantity", "1": "1"}, "9": {"0": "Type", "1": "Mechanical"}}</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Adjustable", "1": "Yes"}, "1": {"0": "Chain Width-1", "1": "13.25 MM"}, "2": {"0": "Chain Width-2", "1": "0.520\""}, "3": {"0": "Length-1", "1": "3.500\""}, "4": {"0": "Length-2", "1": "88.91 MM"}, "5": {"0": "Material", "1": "Nylon"}, "6": {"0": "Mounting Hole Diameter-1", "1": "0.500\""}, "7": {"0": "Mounting Hole Diameter-2", "1": "12.70 mm"}, "8": {"0": "Mounting Hole Quantity", "1": "1"}, "9": {"0": "Type", "1": "Mechanical"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>11860</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
-        <is>
-          <t>11860</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
         <is>
           <t>8308296</t>
         </is>
@@ -2866,60 +2832,59 @@
           <t>S1251</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>130211LU0A;130217S000</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S1251,Timing Crank Sprocket,5723</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S1251-1-FRO.jpg"}</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S1251-1-FRO.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659204&amp;cc=0&amp;pt=5723</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>{"0": "$11.40"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Crank Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$11.12"}</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Crank Sprocket"}</t>
+          <t>{"0": {"0": "Inside Diameter-1", "1": "31.00 MM"}, "1": {"0": "Inside Diameter-2", "1": "1.220\""}, "2": {"0": "Keyway Adjustable", "1": "No"}, "3": {"0": "Keyway Quantity", "1": "1"}, "4": {"0": "Material", "1": "Powdered Metal"}, "5": {"0": "Outside Diameter-1", "1": "46.24 mm"}, "6": {"0": "Outside Diameter-2", "1": "1.820\""}, "7": {"0": "Thickness-1", "1": "23.63 mm"}, "8": {"0": "Thickness-2", "1": "0.930\""}, "9": {"0": "Tooth Quantity", "1": "23"}}</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Inside Diameter-1", "1": "31.00 MM"}, "1": {"0": "Inside Diameter-2", "1": "1.220\""}, "2": {"0": "Keyway Adjustable", "1": "No"}, "3": {"0": "Keyway Quantity", "1": "1"}, "4": {"0": "Material", "1": "Powdered Metal"}, "5": {"0": "Outside Diameter-1", "1": "46.24 mm"}, "6": {"0": "Outside Diameter-2", "1": "1.820\""}, "7": {"0": "Thickness-1", "1": "23.63 mm"}, "8": {"0": "Thickness-2", "1": "0.930\""}, "9": {"0": "Tooth Quantity", "1": "23"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5723</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
-        <is>
-          <t>5723</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
         <is>
           <t>9659204</t>
         </is>
@@ -2946,60 +2911,59 @@
           <t>S1261</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>135210P010;135210P011;1352131040;1352131041</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S1261,Timing Crank Sprocket,5723</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S1261,Timing Crank Sprocket,5723</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S1261-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1261-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S1261-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1261-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659208&amp;cc=0&amp;pt=5723</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659208&amp;cc=0&amp;pt=5723</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>{"0": "$12.17"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Crank Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$12.38"}</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Crank Sprocket"}</t>
+          <t>{"0": {"0": "Inside Diameter-1", "1": "31.00 MM"}, "1": {"0": "Inside Diameter-2", "1": "1.220\""}, "2": {"0": "Keyway Adjustable", "1": "No"}, "3": {"0": "Keyway Quantity", "1": "1"}, "4": {"0": "Material", "1": "Powdered Metal"}, "5": {"0": "Outside Diameter-1", "1": "57.29 mm"}, "6": {"0": "Outside Diameter-2", "1": "0.255\""}, "7": {"0": "Thickness-1", "1": "30.50 MM"}, "8": {"0": "Thickness-2", "1": "1.201\""}, "9": {"0": "Tooth Quantity", "1": "18"}}</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Inside Diameter-1", "1": "31.00 MM"}, "1": {"0": "Inside Diameter-2", "1": "1.220\""}, "2": {"0": "Keyway Adjustable", "1": "No"}, "3": {"0": "Keyway Quantity", "1": "1"}, "4": {"0": "Material", "1": "Powdered Metal"}, "5": {"0": "Outside Diameter-1", "1": "57.29 mm"}, "6": {"0": "Outside Diameter-2", "1": "0.255\""}, "7": {"0": "Thickness-1", "1": "30.50 MM"}, "8": {"0": "Thickness-2", "1": "1.201\""}, "9": {"0": "Tooth Quantity", "1": "18"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5723</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
-        <is>
-          <t>5723</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
         <is>
           <t>9659208</t>
         </is>
@@ -3026,60 +2990,59 @@
           <t>S1274</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>130247S000</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S1274,Timing Cam Sprocket,5722</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S1274,Timing Cam Sprocket,5722</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S1274-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1274-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S1274-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1274-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659212&amp;cc=0&amp;pt=5722</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659212&amp;cc=0&amp;pt=5722</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>{"0": "Out of Stock"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Cam Sprocket (Only 2 Remaining)"}</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$16.65"}</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+          <t>{"0": {"0": "Diameter-1", "1": "3.566\""}, "1": {"0": "Diameter-2", "1": "90.59 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.783\""}, "3": {"0": "Inside Diameter-2", "1": "19.91 mm"}, "4": {"0": "Material", "1": "Heat Treated PM"}, "5": {"0": "Thickness-1", "1": "0.450\""}, "6": {"0": "Thickness-2", "1": "11.43 mm"}, "7": {"0": "Tooth Quantity", "1": "46"}}</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Diameter-1", "1": "3.566\""}, "1": {"0": "Diameter-2", "1": "90.59 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.783\""}, "3": {"0": "Inside Diameter-2", "1": "19.91 mm"}, "4": {"0": "Material", "1": "Heat Treated PM"}, "5": {"0": "Thickness-1", "1": "0.450\""}, "6": {"0": "Thickness-2", "1": "11.43 mm"}, "7": {"0": "Tooth Quantity", "1": "46"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
-        <is>
-          <t>5722</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
         <is>
           <t>9659212</t>
         </is>
@@ -3106,60 +3069,59 @@
           <t>S1276</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>130247S010</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S1276,Timing Cam Sprocket,5722</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S1276,Timing Cam Sprocket,5722</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S1276-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1276-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S1276-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1276-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659216&amp;cc=0&amp;pt=5722</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659216&amp;cc=0&amp;pt=5722</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>{"0": "$16.96"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$16.65"}</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+          <t>{"0": {"0": "Diameter-1", "1": "3.566\""}, "1": {"0": "Diameter-2", "1": "90.59 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.783\""}, "3": {"0": "Inside Diameter-2", "1": "19.91 mm"}, "4": {"0": "Material", "1": "Heat Treated PM"}, "5": {"0": "Thickness-1", "1": "0.450\""}, "6": {"0": "Thickness-2", "1": "11.43 mm"}, "7": {"0": "Tooth Quantity", "1": "46"}}</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Diameter-1", "1": "3.566\""}, "1": {"0": "Diameter-2", "1": "90.59 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.783\""}, "3": {"0": "Inside Diameter-2", "1": "19.91 mm"}, "4": {"0": "Material", "1": "Heat Treated PM"}, "5": {"0": "Thickness-1", "1": "0.450\""}, "6": {"0": "Thickness-2", "1": "11.43 mm"}, "7": {"0": "Tooth Quantity", "1": "46"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
-        <is>
-          <t>5722</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
         <is>
           <t>9659216</t>
         </is>
@@ -3186,60 +3148,59 @@
           <t>S1278</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>13024ZE01A;13024ZE03A</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S1278,Timing Cam Sprocket,5722</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S1278,Timing Cam Sprocket,5722</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S1278-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1278-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S1278-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1278-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659220&amp;cc=0&amp;pt=5722</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659220&amp;cc=0&amp;pt=5722</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>{"0": "$17.06"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$16.94"}</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+          <t>{"0": {"0": "Diameter-1", "1": "3.566\""}, "1": {"0": "Diameter-2", "1": "90.59 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.783\""}, "3": {"0": "Inside Diameter-2", "1": "19.91 mm"}, "4": {"0": "Material", "1": "Heat Treated PM"}, "5": {"0": "Thickness-1", "1": "0.445\""}, "6": {"0": "Thickness-2", "1": "11.32 mm"}, "7": {"0": "Tooth Quantity", "1": "46"}}</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Diameter-1", "1": "3.566\""}, "1": {"0": "Diameter-2", "1": "90.59 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.783\""}, "3": {"0": "Inside Diameter-2", "1": "19.91 mm"}, "4": {"0": "Material", "1": "Heat Treated PM"}, "5": {"0": "Thickness-1", "1": "0.445\""}, "6": {"0": "Thickness-2", "1": "11.32 mm"}, "7": {"0": "Tooth Quantity", "1": "46"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
-        <is>
-          <t>5722</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
         <is>
           <t>9659220</t>
         </is>
@@ -3266,60 +3227,59 @@
           <t>S1290</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1353031020;1353031021;1353431020</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S1290,Timing Idler Sprocket,10465</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S1290,Timing Idler Sprocket,10465</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S1290-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1290-2-BAC.jpg"}</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S1290-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S1290-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659228&amp;cc=0&amp;pt=10465</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=9659228&amp;cc=0&amp;pt=10465</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>{"0": "$17.99"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Idler Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$18.23"}</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Idler Sprocket"}</t>
+          <t>{"0": {"0": "Inside Diameter-1", "1": "0.900\""}, "1": {"0": "Inside Diameter-2", "1": "22.86 mm"}, "2": {"0": "Material", "1": "Hardened Steel"}, "3": {"0": "Mounting Hole Diameter-1", "1": "0.900\""}, "4": {"0": "Mounting Hole Diameter-2", "1": "22.86 mm"}, "5": {"0": "Mounting Hole Quantity", "1": "1"}, "6": {"0": "Outside Diameter-1", "1": "2.260\""}, "7": {"0": "Outside Diameter-2", "1": "57.40 MM"}, "8": {"0": "Thickness At Teeth-1", "1": "0.185\""}, "9": {"0": "Thickness At Teeth-2", "1": "4.70 mm"}, "10": {"0": "Tooth Quantity", "1": "18"}, "11": {"0": "Width-1", "1": "0.750\""}, "12": {"0": "Width-2", "1": "19.05 mm"}}</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Inside Diameter-1", "1": "0.900\""}, "1": {"0": "Inside Diameter-2", "1": "22.86 mm"}, "2": {"0": "Material", "1": "Hardened Steel"}, "3": {"0": "Mounting Hole Diameter-1", "1": "0.900\""}, "4": {"0": "Mounting Hole Diameter-2", "1": "22.86 mm"}, "5": {"0": "Mounting Hole Quantity", "1": "1"}, "6": {"0": "Outside Diameter-1", "1": "2.260\""}, "7": {"0": "Outside Diameter-2", "1": "57.40 MM"}, "8": {"0": "Thickness At Teeth-1", "1": "0.185\""}, "9": {"0": "Thickness At Teeth-2", "1": "4.70 mm"}, "10": {"0": "Tooth Quantity", "1": "18"}, "11": {"0": "Width-1", "1": "0.750\""}, "12": {"0": "Width-2", "1": "19.05 mm"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>10465</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
-        <is>
-          <t>10465</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
         <is>
           <t>9659228</t>
         </is>
@@ -3346,60 +3306,59 @@
           <t>S899</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>3L8Z6306AA;L30511316;L3G211316</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S899,Timing Crank Sprocket,5723</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S899,Timing Crank Sprocket,5723</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S899-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S899-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S899-3-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S899-1-ANG.jpg", "1": "https://www.rockauto.com/info/583/S899-2-FRO.jpg", "2": "https://www.rockauto.com/info/583/S899-3-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8314844&amp;cc=0&amp;pt=5723</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8314844&amp;cc=0&amp;pt=5723</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>{"0": "$13.05"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Crank Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$13.29"}</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Crank Sprocket"}</t>
+          <t>{"0": {"0": "Inside Diameter-1", "1": "1.046\""}, "1": {"0": "Inside Diameter-2", "1": "26.57 mm"}, "2": {"0": "Keyway Adjustable", "1": "No"}, "3": {"0": "Material", "1": "High Alloy Steel"}, "4": {"0": "Thickness-1", "1": "0.934\""}, "5": {"0": "Thickness-2", "1": "23.72 mm"}, "6": {"0": "Tooth Quantity", "1": "25"}}</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Inside Diameter-1", "1": "1.046\""}, "1": {"0": "Inside Diameter-2", "1": "26.57 mm"}, "2": {"0": "Keyway Adjustable", "1": "No"}, "3": {"0": "Material", "1": "High Alloy Steel"}, "4": {"0": "Thickness-1", "1": "0.934\""}, "5": {"0": "Thickness-2", "1": "23.72 mm"}, "6": {"0": "Tooth Quantity", "1": "25"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5723</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
-        <is>
-          <t>5723</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
         <is>
           <t>8314844</t>
         </is>
@@ -3426,60 +3385,59 @@
           <t>S905</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>3M4Z6652AA;L32114143</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S905,Oil Pump Sprocket,5589</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S905,Oil Pump Sprocket,5589</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S905-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S905-3-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S905-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S905-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921472&amp;cc=0&amp;pt=5589</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8921472&amp;cc=0&amp;pt=5589</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>{"0": "$7.11"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Oil Pump Sprocket (Only 1 Remaining)"}</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$7.21"}</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{"0": "Category: Oil Pump Sprocket"}</t>
+          <t>{"0": {"0": "Inside Diameter-1", "1": "0.340\""}, "1": {"0": "Inside Diameter-2", "1": "8.64 MM"}, "2": {"0": "Material", "1": "Steel"}, "3": {"0": "Mounting Hole Quantity", "1": "5"}, "4": {"0": "Outside Diameter-1", "1": "2.000\""}, "5": {"0": "Outside Diameter-2", "1": "50.80 MM"}, "6": {"0": "Thickness-1", "1": "0.250\""}, "7": {"0": "Thickness-2", "1": "6.35 mm"}, "8": {"0": "Tooth Quantity", "1": "24"}}</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Inside Diameter-1", "1": "0.340\""}, "1": {"0": "Inside Diameter-2", "1": "8.64 MM"}, "2": {"0": "Material", "1": "Steel"}, "3": {"0": "Mounting Hole Quantity", "1": "5"}, "4": {"0": "Outside Diameter-1", "1": "2.000\""}, "5": {"0": "Outside Diameter-2", "1": "50.80 MM"}, "6": {"0": "Thickness-1", "1": "0.250\""}, "7": {"0": "Thickness-2", "1": "6.35 mm"}, "8": {"0": "Tooth Quantity", "1": "24"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5589</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
-        <is>
-          <t>5589</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
         <is>
           <t>8921472</t>
         </is>
@@ -3506,60 +3464,59 @@
           <t>S906A</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>3L8Z6256AA;L30512425;L32712425</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S906A,Timing Cam Sprocket,5722</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S906A,Timing Cam Sprocket,5722</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S906A-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S906A-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S906A-3-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S906A-1-ANG.jpg", "1": "https://www.rockauto.com/info/583/S906A-2-FRO.jpg", "2": "https://www.rockauto.com/info/583/S906A-3-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=8314860&amp;cc=0&amp;pt=5722</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=8314860&amp;cc=0&amp;pt=5722</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>{"0": "$16.98"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$17.05"}</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+          <t>{"0": {"0": "Diameter-1", "1": "3.886\""}, "1": {"0": "Diameter-2", "1": "98.70 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.423\""}, "3": {"0": "Inside Diameter-2", "1": "10.74 mm"}, "4": {"0": "Material", "1": "High Alloy Steel"}, "5": {"0": "Thickness-1", "1": "0.558\""}, "6": {"0": "Thickness-2", "1": "14.17 MM"}, "7": {"0": "Tooth Quantity", "1": "50"}}</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Diameter-1", "1": "3.886\""}, "1": {"0": "Diameter-2", "1": "98.70 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.423\""}, "3": {"0": "Inside Diameter-2", "1": "10.74 mm"}, "4": {"0": "Material", "1": "High Alloy Steel"}, "5": {"0": "Thickness-1", "1": "0.558\""}, "6": {"0": "Thickness-2", "1": "14.17 MM"}, "7": {"0": "Tooth Quantity", "1": "50"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
-        <is>
-          <t>5722</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
         <is>
           <t>8314860</t>
         </is>
@@ -3586,60 +3543,59 @@
           <t>S959</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1352131030;1352131060;13521AD010</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S959,Timing Crank Sprocket,5723</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S959,Timing Crank Sprocket,5723</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S959-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S959-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S959-3-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S959-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/S959-2-BOT.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10454636&amp;cc=0&amp;pt=5723</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10454636&amp;cc=0&amp;pt=5723</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>{"0": "$12.14"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Crank Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$12.35"}</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Crank Sprocket"}</t>
+          <t>{"0": {"0": "Inside Diameter-1", "1": "1.210\""}, "1": {"0": "Inside Diameter-2", "1": "30.83 MM"}, "2": {"0": "Keyway Adjustable", "1": "No"}, "3": {"0": "Keyway Quantity", "1": "1"}, "4": {"0": "Material", "1": "High Alloy Steel"}, "5": {"0": "Outside Diameter-1", "1": "2.270\""}, "6": {"0": "Outside Diameter-2", "1": "57.75 mm"}, "7": {"0": "Thickness-1", "1": "1.200\""}, "8": {"0": "Thickness-2", "1": "30.48 MM"}, "9": {"0": "Tooth Quantity", "1": "18"}}</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Inside Diameter-1", "1": "1.210\""}, "1": {"0": "Inside Diameter-2", "1": "30.83 MM"}, "2": {"0": "Keyway Adjustable", "1": "No"}, "3": {"0": "Keyway Quantity", "1": "1"}, "4": {"0": "Material", "1": "High Alloy Steel"}, "5": {"0": "Outside Diameter-1", "1": "2.270\""}, "6": {"0": "Outside Diameter-2", "1": "57.75 mm"}, "7": {"0": "Thickness-1", "1": "1.200\""}, "8": {"0": "Thickness-2", "1": "30.48 MM"}, "9": {"0": "Tooth Quantity", "1": "18"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5723</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
-        <is>
-          <t>5723</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
         <is>
           <t>10454636</t>
         </is>
@@ -3666,60 +3622,59 @@
           <t>S960</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1352331030;13523AD010</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S960,Timing Cam Sprocket,5722</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S960,Timing Cam Sprocket,5722</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S960-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S960-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S960-3-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S960-1-TOP.jpg", "1": "https://www.rockauto.com/info/583/S960-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10454640&amp;cc=0&amp;pt=5722</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10454640&amp;cc=0&amp;pt=5722</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>{"0": "$12.41"}</t>
-        </is>
-      </c>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{"0": "$12.62"}</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Cam Sprocket"}</t>
+          <t>{"0": {"0": "Diameter-1", "1": "2.750\""}, "1": {"0": "Diameter-2", "1": "69.78 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.706\""}, "3": {"0": "Inside Diameter-2", "1": "17.93 mm"}, "4": {"0": "Material", "1": "High Alloy Steel"}, "5": {"0": "Thickness-1", "1": "0.265\""}, "6": {"0": "Thickness-2", "1": "6.75 MM"}, "7": {"0": "Tooth Quantity", "1": "22"}}</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Diameter-1", "1": "2.750\""}, "1": {"0": "Diameter-2", "1": "69.78 mm"}, "2": {"0": "Inside Diameter-1", "1": "0.706\""}, "3": {"0": "Inside Diameter-2", "1": "17.93 mm"}, "4": {"0": "Material", "1": "High Alloy Steel"}, "5": {"0": "Thickness-1", "1": "0.265\""}, "6": {"0": "Thickness-2", "1": "6.75 MM"}, "7": {"0": "Tooth Quantity", "1": "22"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
-        <is>
-          <t>5722</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
         <is>
           <t>10454640</t>
         </is>
@@ -3746,60 +3701,59 @@
           <t>S961</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>135300P010;135300P011;1353031011;1356031010</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>135300P010;135300P011;1353031010;1353031011</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.rockauto.com/en/parts/MELLING,S961,Timing Idler Sprocket,10465</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/parts/MELLING,S961,Timing Idler Sprocket,10465</t>
+          <t>{"0": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S961-2-BAC.jpg", "2": "https://www.rockauto.com/info/583/S961-3-ANG.jpg"}</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>{"0": "https://www.rockauto.com/info/583/S961-1-FRO.jpg", "1": "https://www.rockauto.com/info/583/S961-2-BAC.jpg"}</t>
+          <t>https://www.rockauto.com/en/moreinfo.php?pk=10454644&amp;cc=0&amp;pt=10465</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.rockauto.com/en/moreinfo.php?pk=10454644&amp;cc=0&amp;pt=10465</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>{"0": "Category: Timing Idler Sprocket (Only 1 Remaining)"}</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>{"0": "$26.79"}</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>{"0": "Category: Timing Idler Sprocket"}</t>
+          <t>{"0": {"0": "Flanged End", "1": "Yes"}, "1": {"0": "Inside Diameter-1", "1": "0.900\""}, "2": {"0": "Inside Diameter-2", "1": "22.86 mm"}, "3": {"0": "Material", "1": "High Alloy Steel"}, "4": {"0": "Mounting Hole Diameter-1", "1": "0.900\""}, "5": {"0": "Mounting Hole Diameter-2", "1": "22.86 mm"}, "6": {"0": "Mounting Hole Quantity", "1": "1"}, "7": {"0": "Outside Diameter-1", "1": "2.280\""}, "8": {"0": "Outside Diameter-2", "1": "57.96 mm"}, "9": {"0": "Thickness At Teeth-1", "1": "0.213\""}, "10": {"0": "Thickness At Teeth-2", "1": "5.42 mm"}, "11": {"0": "Tooth Quantity", "1": "18"}}</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>{"0": {"0": "Flanged End", "1": "Yes"}, "1": {"0": "Inside Diameter-1", "1": "0.900\""}, "2": {"0": "Inside Diameter-2", "1": "22.86 mm"}, "3": {"0": "Material", "1": "High Alloy Steel"}, "4": {"0": "Mounting Hole Diameter-1", "1": "0.900\""}, "5": {"0": "Mounting Hole Diameter-2", "1": "22.86 mm"}, "6": {"0": "Mounting Hole Quantity", "1": "1"}, "7": {"0": "Outside Diameter-1", "1": "2.280\""}, "8": {"0": "Outside Diameter-2", "1": "57.96 mm"}, "9": {"0": "Thickness At Teeth-1", "1": "0.213\""}, "10": {"0": "Thickness At Teeth-2", "1": "5.42 mm"}, "11": {"0": "Tooth Quantity", "1": "18"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>10465</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
-        <is>
-          <t>10465</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
         <is>
           <t>10454644</t>
         </is>
